--- a/ruby/public/input_template.xlsx
+++ b/ruby/public/input_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/17dzat/Documents/institute/diploma/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/17dzat/Documents/institute/diploma/program/ruby/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A84478-C25D-5040-9396-A315ABDB0EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B516B4-AA40-3442-9518-ABC93A63150F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>K1, K2, K3</t>
   </si>
   <si>
-    <t>K1, K2, K6, K7, K9</t>
-  </si>
-  <si>
     <t>Название</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>K1, K3, K5, K7, K9</t>
+  </si>
+  <si>
+    <t>K1,K3,K5,K7</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -628,39 +628,39 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>209</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>249</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>600</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>88</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>88</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>210</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>300</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>132</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>80</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>101</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>929</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>249</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>209</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>795</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <v>74</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1">
         <v>132</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1">
         <v>100</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>195</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1">
         <v>162</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
         <v>300</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1">
         <v>450</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
         <v>162</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>929</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
         <v>58</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1">
         <v>410</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1">
         <v>155</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1">
         <v>51</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
         <v>115</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
         <v>50</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
         <v>272</v>
@@ -1710,60 +1710,60 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1797,31 +1797,31 @@
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1932,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1943,7 +1943,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1958,17 +1958,17 @@
     </row>
     <row r="4" spans="1:1" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
